--- a/Admin/namelist-CDT.xlsx
+++ b/Admin/namelist-CDT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>First Name</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>origin</t>
-  </si>
-  <si>
     <t>Chinese Name</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name List      </t>
   </si>
   <si>
     <t>2015-TsinghuaMEM-XLP-CDT</t>
@@ -235,6 +229,15 @@
   </si>
   <si>
     <t>IE Department</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name List   </t>
   </si>
 </sst>
 </file>
@@ -349,7 +352,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -367,8 +370,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -385,11 +390,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -398,6 +406,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -406,11 +415,64 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>812800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Macintosh HD:Users:bkoo:Dropbox:XLP Workshop:XLPSHARE:Toyhouse logo new.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="152400" y="127000"/>
+          <a:ext cx="2222500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -761,177 +823,179 @@
     <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="41" customHeight="1">
+    <row r="1" spans="1:17" ht="74" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
         <v>18601267824</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
@@ -945,14 +1009,14 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -962,50 +1026,50 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="2"/>
     </row>
@@ -1021,10 +1085,10 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1035,18 +1099,18 @@
     <row r="8" spans="1:17">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1061,12 +1125,20 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1080,12 +1152,18 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1102,10 +1180,16 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1114,23 +1198,23 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1145,13 +1229,9 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1171,16 +1251,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1189,24 +1263,16 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1503,70 +1569,15 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Admin/namelist-CDT.xlsx
+++ b/Admin/namelist-CDT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>First Name</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t xml:space="preserve">Name List   </t>
+  </si>
+  <si>
+    <t>兰岚</t>
+  </si>
+  <si>
+    <t>Jilin Huadian</t>
+  </si>
+  <si>
+    <t>15201611755</t>
   </si>
 </sst>
 </file>
@@ -352,8 +361,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -397,7 +408,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -407,6 +418,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -416,6 +428,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -800,7 +813,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1227,15 +1240,23 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="30">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>

--- a/Admin/namelist-CDT.xlsx
+++ b/Admin/namelist-CDT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitL\2015-TsinghuaMEM-XLP-CDT\Admin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>First Name</t>
   </si>
@@ -243,21 +248,34 @@
     <t>兰岚</t>
   </si>
   <si>
-    <t>Jilin Huadian</t>
-  </si>
-  <si>
     <t>15201611755</t>
+  </si>
+  <si>
+    <t>Lan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Jilin </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan_lan0421@163.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -272,7 +290,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +298,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -288,7 +306,14 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -361,7 +386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -383,8 +408,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -407,32 +433,44 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="21" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="22">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -812,31 +850,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="36.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="74" customHeight="1">
+    <row r="1" spans="1:17" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>67</v>
       </c>
@@ -861,7 +899,7 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -908,7 +946,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -961,7 +999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1012,7 +1050,7 @@
       </c>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1037,7 +1075,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1086,7 +1124,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1109,7 +1147,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>36</v>
@@ -1136,7 +1174,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>39</v>
@@ -1163,7 +1201,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
@@ -1188,7 +1226,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1213,7 +1251,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>46</v>
@@ -1240,24 +1278,30 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="30">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1267,7 +1311,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1286,7 +1330,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1305,7 +1349,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1324,7 +1368,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1343,7 +1387,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1362,7 +1406,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1381,7 +1425,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1400,7 +1444,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1419,7 +1463,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1438,7 +1482,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1457,7 +1501,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1476,7 +1520,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1495,7 +1539,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1514,7 +1558,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1533,7 +1577,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1552,7 +1596,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1571,7 +1615,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1596,9 +1640,13 @@
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:Q1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
